--- a/Star Rain/Star Rain/map3.xlsx
+++ b/Star Rain/Star Rain/map3.xlsx
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,7 +94,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -123,76 +127,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -474,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DP19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="DV22" sqref="DV22"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="DL18" sqref="DL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4557,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="1">
         <v>0</v>
@@ -4734,37 +4668,37 @@
         <v>0</v>
       </c>
       <c r="CL12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW12" s="1">
         <v>0</v>
@@ -4895,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -4919,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="1">
         <v>0</v>
@@ -5027,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="BO13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP13" s="1">
         <v>0</v>
@@ -5084,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="CH13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI13" s="1">
         <v>0</v>
@@ -5227,91 +5161,91 @@
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="1">
         <v>0</v>
@@ -5446,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="CH14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI14" s="1">
         <v>0</v>
@@ -5673,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="1">
         <v>0</v>
@@ -5742,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM15" s="1">
         <v>0</v>
@@ -5799,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="CE15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF15" s="1">
         <v>0</v>
@@ -5808,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="CH15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI15" s="1">
         <v>0</v>
@@ -5886,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="DH15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI15" s="1">
         <v>0</v>
@@ -5898,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="DL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM15" s="1">
         <v>0</v>
@@ -6035,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="1">
         <v>0</v>
@@ -6065,10 +5999,10 @@
         <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA16" s="1">
         <v>0</v>
@@ -6092,10 +6026,10 @@
         <v>0</v>
       </c>
       <c r="BH16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ16" s="1">
         <v>0</v>
@@ -6158,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="CD16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF16" s="1">
         <v>0</v>
@@ -6170,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="CH16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI16" s="1">
         <v>0</v>
@@ -6248,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="DH16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI16" s="1">
         <v>0</v>
@@ -6260,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="DL16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM16" s="1">
         <v>0</v>
@@ -6269,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="DO16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DP16" s="1">
         <v>0</v>
@@ -6298,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -6397,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="1">
         <v>0</v>
@@ -6415,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV17" s="1">
         <v>0</v>
@@ -6427,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA17" s="1">
         <v>0</v>
@@ -6502,10 +6436,10 @@
         <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY17" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ17" s="1">
         <v>0</v>
@@ -6517,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF17" s="1">
         <v>0</v>
@@ -6532,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="CH17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI17" s="1">
         <v>0</v>
@@ -6562,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="CR17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS17" s="1">
         <v>0</v>
@@ -6610,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="DH17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI17" s="1">
         <v>0</v>
@@ -6622,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="DL17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM17" s="1">
         <v>0</v>
@@ -6631,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="DO17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DP17" s="1">
         <v>0</v>
@@ -6660,10 +6594,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -6696,10 +6630,10 @@
         <v>1</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
@@ -6747,34 +6681,34 @@
         <v>1</v>
       </c>
       <c r="AK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>1</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="1">
         <v>1</v>
@@ -6810,49 +6744,49 @@
         <v>1</v>
       </c>
       <c r="BF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" s="1">
         <v>1</v>
@@ -6864,10 +6798,10 @@
         <v>1</v>
       </c>
       <c r="BX18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ18" s="1">
         <v>1</v>
@@ -6918,10 +6852,10 @@
         <v>1</v>
       </c>
       <c r="CP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR18" s="1">
         <v>1</v>
@@ -6942,13 +6876,13 @@
         <v>1</v>
       </c>
       <c r="CX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA18" s="1">
         <v>1</v>
@@ -7109,34 +7043,34 @@
         <v>1</v>
       </c>
       <c r="AK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>1</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="1">
         <v>1</v>
@@ -7172,49 +7106,49 @@
         <v>1</v>
       </c>
       <c r="BF19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="1">
         <v>1</v>
@@ -7280,10 +7214,10 @@
         <v>1</v>
       </c>
       <c r="CP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR19" s="1">
         <v>1</v>
@@ -7304,13 +7238,13 @@
         <v>1</v>
       </c>
       <c r="CX19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA19" s="1">
         <v>1</v>

--- a/Star Rain/Star Rain/map3.xlsx
+++ b/Star Rain/Star Rain/map3.xlsx
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
